--- a/browsers/GUITest1/Default.xlsx
+++ b/browsers/GUITest1/Default.xlsx
@@ -15,7 +15,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
   <si>
     <t>Username</t>
   </si>
@@ -190,10 +199,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -210,10 +219,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -238,15 +247,15 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -546,46 +555,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.91796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.41796875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" s="1" customFormat="1">
+    <row r="1" s="3" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -597,19 +611,17 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="9.41796875" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
+    <row r="1" ht="14.95" s="3" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
